--- a/ManualTestingTaskArminNukic.xlsx
+++ b/ManualTestingTaskArminNukic.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp 2560P\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp 2560P\Desktop\AtlantBH\ManualTestingTaskArminNukic\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -143,16 +143,10 @@
     <t>https://www.navigator.ba/#/p/sarajevo-city-center</t>
   </si>
   <si>
-    <t>It should be displayed the marker where Sarajevo City Center (SCC) is located, what is address and working hours.</t>
-  </si>
-  <si>
     <t xml:space="preserve">SMOKE TEST            </t>
   </si>
   <si>
     <t>https://www.navigator.ba/#/search/Francuske%20revolucije%20bb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It should be displayed the marker where the address " Francuske Revolucije bb" is located,what is important there, which objects and working hours. </t>
   </si>
   <si>
     <t xml:space="preserve">Check main functionality. Search for the object or company,     </t>
@@ -545,8 +539,164 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">1. Open Browser               2. Enter input data in  search address bar https://www.navigator.ba/                                     3. Enter unfamiliar  numbers like: "35"           4. See the results </t>
+  </si>
+  <si>
+    <t>1. Open Browser               2. Enter input data in  search address bar https://www.navigator.ba/                                     3. Enter  street address like: "Alije Izetbegovica"                       4. See the results and BUGS</t>
+  </si>
+  <si>
+    <t>1. Open Browser               2. Enter input data in  search address bar https://www.navigator.ba/                                     3. Enter city like: "Visoko"                            4. See the results and BUGS</t>
+  </si>
+  <si>
+    <t>Results: Displayed all the places or address with the postal code of 71000. And there is many, because it is postal code for whole Sarajevo.</t>
+  </si>
+  <si>
+    <t>1. Open Browser               2. Enter input data in  search address bar https://www.navigator.ba/                                     3. Enter familiar and appropriate  numbers like: "71300"           4. See the results</t>
+  </si>
+  <si>
+    <t>1. Open Browser               2. Enter input data in  search address bar https://www.navigator.ba/                                     3. Enter unfamiliar  and unappropriate numbers like: "8777"           4. See the results</t>
+  </si>
+  <si>
+    <t>Results: Displayed all the places or regions in Sarajevo with the street address number "35"</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Markers should be displyed only in Sarajevo region.                                         Markers are displayed in Sarajevo.                            </t>
+      <t xml:space="preserve">Results: Invalid data for Sarajevo.               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>NOTES:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> This is BUG because it offers us the "Zavičajni muzej Visoko" and it is in Visoko not in Sarajevo.                       IT should be displayed results: "We are sorry. We could not find any results for the search "Zavičajni muzej Visoko" in Sarajevo."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Results: Invalid data for Sarajevo.                 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>NOTES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: This is BUG, because it offers us the markers where the location of Visoko is. It isn't a case because it's map only for * Sarajevo *. It should be displayed results like:  "We are sorry. We could not find any results for city Visoko in Sarajevo for the search."</t>
+    </r>
+  </si>
+  <si>
+    <t>Results: + is for zoom, it zoom it. - is for unzoom, and it unzoom it when click it. It can zoom it in map or satelit mode in order to see address clearly, or to see road clearly or to see the place clearly.</t>
+  </si>
+  <si>
+    <t>Results: It is outputed "Form contains invalid data. Please correct and try again"  There is a validation that we should enter any valid data in correct form</t>
+  </si>
+  <si>
+    <t>Results: You can set marker where you want and location of company that I will open in future is "Safeta Zajke bb" and it is good that you can place marker where you want,</t>
+  </si>
+  <si>
+    <t>Displayed the name of club "Cinemas Sloga Club" the street address
+"Mehmeda Spahe 20" and the number of that night club
+"033 218 811"</t>
+  </si>
+  <si>
+    <t>Displayed category options for:  "ACCOMODATION" , "COFFEE", "FOOD", "SHOPPING, "NIGHT LIFE", "ATTRACTIONS", "ARTS&amp;ENTERTAINMENT", "SPORT", "SERVICES, "TRANSPORTATION", "BUSINESS" AND "STREETS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Results: "We are sorry you cannot create for the city Kakanj, because it is a map only for Sarajevo".                               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">NOTES: BUG EXPLAINED: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I shouldn't create a place that is not in Sarajevo because it is a navigator map that is just for Sarajevo. But, in this case I created a company with name "It kompanija" in city Kakanj and can see the results when I type the data in address bar navigator.ba that location of this company is in Kakanj, but it isn't the case, because this map is designed only for city Sarajevo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All Infomation are filled and we successfully created a new place with valid and appropriate data.                  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>NOTES:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Try to fill it with valid data, and this validation is same for each field. Ex: City:"Sarajevo", Address: "Safeta Zajke",house number"44",zip code: "71000" and all of them are  valid, and response is that the place is created and can see the place  on map with all the data.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Step by step, one by one try to fill each field with not valid data format and  not appropriate data and see the response of validation that data are invalild and try to fill it with invalid data, and this validation is same for each field. Ex: City:"SarajIvloo", Address: "asdasd",,house number: "fgfg", zip code: "fgdfgfd" and all of them are not valid, and response is invalid data. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Important NOTE is that each field should be tested one by one, step by step, to see with empty data, other characters and other unusual and unappropriate names or characters. And the responsse should be that data are not valid if validation is set correct</t>
+    </r>
+  </si>
+  <si>
+    <t>Results: The marker where Sarajevo City Center (SCC) is located, what is address and working hours.                     Sarajevo City Center (SCC)
+Vrbanja 1
+Danas: 10:00-22:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Results: The marker where the address " Francuske Revolucije bb" is located,what is important there, which objects and working hours.                             İnternational Burch University
+Francuske revolucije bb
+033 944 400
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Results:                                       Markers are displayed in Sarajevo and other cities              .                            </t>
     </r>
     <r>
       <rPr>
@@ -583,151 +733,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> that street address is displayed with markers in this cities "Čelić", "Tešanj", "Zenica" and "Kakanj". This street address should be displayed only in Sarajevo region not in other cities, because it is designed only for Sarajevo and in search bar is written "Sarajevo".                                                    </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open Browser               2. Enter input data in  search address bar https://www.navigator.ba/                                     3. Enter unfamiliar  numbers like: "35"           4. See the results </t>
-  </si>
-  <si>
-    <t>1. Open Browser               2. Enter input data in  search address bar https://www.navigator.ba/                                     3. Enter  street address like: "Alije Izetbegovica"                       4. See the results and BUGS</t>
-  </si>
-  <si>
-    <t>1. Open Browser               2. Enter input data in  search address bar https://www.navigator.ba/                                     3. Enter city like: "Visoko"                            4. See the results and BUGS</t>
-  </si>
-  <si>
-    <t>Results: Displayed all the places or address with the postal code of 71000. And there is many, because it is postal code for whole Sarajevo.</t>
-  </si>
-  <si>
-    <t>1. Open Browser               2. Enter input data in  search address bar https://www.navigator.ba/                                     3. Enter familiar and appropriate  numbers like: "71300"           4. See the results</t>
-  </si>
-  <si>
-    <t>1. Open Browser               2. Enter input data in  search address bar https://www.navigator.ba/                                     3. Enter unfamiliar  and unappropriate numbers like: "8777"           4. See the results</t>
-  </si>
-  <si>
-    <t>Results: Displayed all the places or regions in Sarajevo with the street address number "35"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Results: Invalid data for Sarajevo.               </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>NOTES:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> This is BUG because it offers us the "Zavičajni muzej Visoko" and it is in Visoko not in Sarajevo.                       IT should be displayed results: "We are sorry. We could not find any results for the search "Zavičajni muzej Visoko" in Sarajevo."</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Results: Invalid data for Sarajevo.                 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>NOTES</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: This is BUG, because it offers us the markers where the location of Visoko is. It isn't a case because it's map only for * Sarajevo *. It should be displayed results like:  "We are sorry. We could not find any results for city Visoko in Sarajevo for the search."</t>
-    </r>
-  </si>
-  <si>
-    <t>Results: + is for zoom, it zoom it. - is for unzoom, and it unzoom it when click it. It can zoom it in map or satelit mode in order to see address clearly, or to see road clearly or to see the place clearly.</t>
-  </si>
-  <si>
-    <t>Results: It is outputed "Form contains invalid data. Please correct and try again"  There is a validation that we should enter any valid data in correct form</t>
-  </si>
-  <si>
-    <t>Results: You can set marker where you want and location of company that I will open in future is "Safeta Zajke bb" and it is good that you can place marker where you want,</t>
-  </si>
-  <si>
-    <t>Displayed the name of club "Cinemas Sloga Club" the street address
-"Mehmeda Spahe 20" and the number of that night club
-"033 218 811"</t>
-  </si>
-  <si>
-    <t>Displayed category options for:  "ACCOMODATION" , "COFFEE", "FOOD", "SHOPPING, "NIGHT LIFE", "ATTRACTIONS", "ARTS&amp;ENTERTAINMENT", "SPORT", "SERVICES, "TRANSPORTATION", "BUSINESS" AND "STREETS</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Results: "We are sorry you cannot create for the city Kakanj, because it is a map only for Sarajevo".                               </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">NOTES: BUG EXPLAINED: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>I shouldn't create a place that is not in Sarajevo because it is a navigator map that is just for Sarajevo. But, in this case I created a company with name "It kompanija" in city Kakanj and can see the results when I type the data in address bar navigator.ba that location of this company is in Kakanj, but it isn't the case, because this map is designed only for city Sarajevo.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">All Infomation are filled and we successfully created a new place with valid and appropriate data.                  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>NOTES:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Try to fill it with valid data, and this validation is same for each field. Ex: City:"Sarajevo", Address: "Safeta Zajke",house number"44",zip code: "71000" and all of them are  valid, and response is that the place is created and can see the place  on map with all the data.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Step by step, one by one try to fill each field with not valid data format and  not appropriate data and see the response of validation that data are invalild and try to fill it with invalid data, and this validation is same for each field. Ex: City:"SarajIvloo", Address: "asdasd",,house number: "fgfg", zip code: "fgdfgfd" and all of them are not valid, and response is invalid data. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Important NOTE is that each field should be tested one by one, step by step, to see with empty data, other characters and other unusual and unappropriate names or characters. And the responsse should be that data are not valid if validation is set correct</t>
     </r>
   </si>
 </sst>
@@ -1137,58 +1142,148 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1214,106 +1309,16 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1600,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50:G50"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1612,48 +1617,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="58"/>
+      <c r="A1" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="50"/>
       <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="31" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="32"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="52"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="59" t="s">
+      <c r="E2" s="50"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="58"/>
-      <c r="J2" s="60" t="s">
+      <c r="I2" s="50"/>
+      <c r="J2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="61"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
@@ -1669,10 +1674,10 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="63"/>
+      <c r="B4" s="57"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1697,29 +1702,29 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="63"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="64" t="s">
-        <v>140</v>
-      </c>
-      <c r="G6" s="65"/>
-      <c r="H6" s="59" t="s">
+      <c r="E6" s="57"/>
+      <c r="F6" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="59"/>
+      <c r="H6" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="63"/>
-      <c r="J6" s="56" t="s">
+      <c r="I6" s="57"/>
+      <c r="J6" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="56"/>
+      <c r="K6" s="48"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
@@ -1738,106 +1743,106 @@
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
       <c r="E8" s="10"/>
       <c r="F8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="57" t="s">
+      <c r="G8" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>1</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="3"/>
       <c r="F9" s="12">
         <v>1</v>
       </c>
-      <c r="G9" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
+      <c r="G9" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="52"/>
     </row>
     <row r="10" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>2</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="3"/>
       <c r="F10" s="12">
         <v>2</v>
       </c>
-      <c r="G10" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="32"/>
+      <c r="G10" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="52"/>
     </row>
     <row r="11" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>3</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="3"/>
       <c r="F11" s="12">
         <v>3</v>
       </c>
-      <c r="G11" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="32"/>
+      <c r="G11" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="52"/>
     </row>
     <row r="12" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>4</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="3"/>
       <c r="F12" s="12">
         <v>4</v>
       </c>
-      <c r="G12" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="32"/>
+      <c r="G12" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="52"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
@@ -1853,23 +1858,23 @@
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14"/>
@@ -1877,23 +1882,23 @@
       <c r="T14"/>
     </row>
     <row r="15" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15"/>
@@ -1901,1449 +1906,1256 @@
       <c r="T15"/>
     </row>
     <row r="16" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="35" t="s">
+      <c r="C16" s="66"/>
+      <c r="D16" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="35" t="s">
+      <c r="E16" s="66"/>
+      <c r="F16" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="41" t="s">
+      <c r="G16" s="66"/>
+      <c r="H16" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="35" t="s">
+      <c r="I16" s="72"/>
+      <c r="J16" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="45"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="35" t="s">
+      <c r="K16" s="37"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="N16" s="45"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="35" t="s">
+      <c r="N16" s="37"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="46"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="38"/>
     </row>
     <row r="17" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="49"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="41"/>
     </row>
     <row r="18" spans="1:18" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>1</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="50" t="s">
+      <c r="C18" s="76"/>
+      <c r="D18" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="51"/>
-      <c r="F18" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="53"/>
-      <c r="H18" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="53"/>
-      <c r="J18" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="K18" s="54"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="55" t="s">
+      <c r="E18" s="43"/>
+      <c r="F18" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="45"/>
+      <c r="H18" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="45"/>
+      <c r="J18" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="K18" s="46"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="N18" s="54"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="53"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="45"/>
     </row>
     <row r="19" spans="1:18" ht="159.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17">
         <v>2</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="78"/>
+      <c r="F19" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" s="34"/>
+      <c r="H19" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="34"/>
+      <c r="J19" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="K19" s="33"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="25"/>
-      <c r="J19" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="69"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="N19" s="69"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="69"/>
-      <c r="R19" s="25"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="34"/>
     </row>
     <row r="20" spans="1:18" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <v>3</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="28" t="s">
+      <c r="C20" s="20"/>
+      <c r="D20" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="28" t="s">
+      <c r="E20" s="20"/>
+      <c r="F20" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="K20" s="71"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="N20" s="71"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="29"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="N20" s="19"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="20"/>
     </row>
     <row r="21" spans="1:18" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="28" t="s">
+      <c r="C21" s="20"/>
+      <c r="D21" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="28" t="s">
+      <c r="E21" s="20"/>
+      <c r="F21" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="K21" s="71"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="72" t="s">
+      <c r="G21" s="20"/>
+      <c r="H21" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="N21" s="71"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="29"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="N21" s="19"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="20"/>
     </row>
     <row r="22" spans="1:18" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>5</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="73" t="s">
+      <c r="C22" s="29"/>
+      <c r="D22" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="74"/>
-      <c r="F22" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="18" t="s">
+      <c r="E22" s="27"/>
+      <c r="F22" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="29"/>
+      <c r="H22" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="29"/>
+      <c r="J22" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="K22" s="75"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="N22" s="75"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="19"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="29"/>
     </row>
     <row r="23" spans="1:18" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>6</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="20" t="s">
+      <c r="C23" s="24"/>
+      <c r="D23" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="20" t="s">
+      <c r="E23" s="24"/>
+      <c r="F23" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="24"/>
+      <c r="H23" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="24"/>
+      <c r="J23" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="K23" s="77"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="N23" s="77"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="21"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="N23" s="23"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="24"/>
     </row>
     <row r="24" spans="1:18" ht="147" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <v>7</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="28" t="s">
+      <c r="C24" s="20"/>
+      <c r="D24" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" s="29"/>
-      <c r="H24" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="28" t="s">
+      <c r="E24" s="20"/>
+      <c r="F24" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="K24" s="71"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="N24" s="71"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="29"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K24" s="19"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="N24" s="19"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="20"/>
     </row>
     <row r="25" spans="1:18" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>8</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="28" t="s">
+      <c r="C25" s="20"/>
+      <c r="D25" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" s="29"/>
-      <c r="H25" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="K25" s="71"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="N25" s="71"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="71"/>
-      <c r="R25" s="29"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="20"/>
+      <c r="H25" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="19"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="N25" s="19"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="20"/>
     </row>
     <row r="26" spans="1:18" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>9</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="28" t="s">
+      <c r="C26" s="20"/>
+      <c r="D26" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="28" t="s">
+      <c r="E26" s="20"/>
+      <c r="F26" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="20"/>
+      <c r="H26" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="K26" s="19"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G26" s="29"/>
-      <c r="H26" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="I26" s="29"/>
-      <c r="J26" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="K26" s="71"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="N26" s="71"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="29"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="20"/>
     </row>
     <row r="27" spans="1:18" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>10</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="28" t="s">
+      <c r="C27" s="20"/>
+      <c r="D27" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="29"/>
-      <c r="F27" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="I27" s="29"/>
-      <c r="J27" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="K27" s="71"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="N27" s="71"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="29"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="20"/>
+      <c r="H27" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="K27" s="19"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="N27" s="19"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="20"/>
     </row>
     <row r="28" spans="1:18" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <v>11</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="28" t="s">
+      <c r="C28" s="20"/>
+      <c r="D28" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="G28" s="29"/>
-      <c r="H28" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="I28" s="29"/>
-      <c r="J28" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="K28" s="71"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="N28" s="71"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="71"/>
-      <c r="R28" s="29"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="20"/>
+      <c r="H28" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="K28" s="19"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="N28" s="19"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="20"/>
     </row>
     <row r="29" spans="1:18" ht="149.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>12</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="28" t="s">
+      <c r="C29" s="20"/>
+      <c r="D29" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="I29" s="29"/>
-      <c r="J29" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="K29" s="71"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="N29" s="71"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="71"/>
-      <c r="R29" s="29"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="20"/>
+      <c r="H29" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K29" s="19"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="N29" s="19"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="20"/>
     </row>
     <row r="30" spans="1:18" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
         <v>13</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="28" t="s">
+      <c r="C30" s="20"/>
+      <c r="D30" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="G30" s="29"/>
-      <c r="H30" s="28" t="s">
+      <c r="E30" s="20"/>
+      <c r="F30" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="I30" s="29"/>
-      <c r="J30" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="K30" s="71"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="N30" s="71"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="29"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="K30" s="19"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="N30" s="19"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="20"/>
     </row>
     <row r="31" spans="1:18" ht="138" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
         <v>14</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="28" t="s">
+      <c r="C31" s="20"/>
+      <c r="D31" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="G31" s="29"/>
-      <c r="H31" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="I31" s="29"/>
-      <c r="J31" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="K31" s="71"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="72" t="s">
+      <c r="E31" s="20"/>
+      <c r="F31" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" s="20"/>
+      <c r="H31" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="N31" s="71"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="71"/>
-      <c r="R31" s="29"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="N31" s="19"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="20"/>
     </row>
     <row r="32" spans="1:18" ht="151.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
         <v>15</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="28" t="s">
+      <c r="C32" s="20"/>
+      <c r="D32" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="28" t="s">
+      <c r="E32" s="20"/>
+      <c r="F32" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" s="20"/>
+      <c r="H32" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="K32" s="19"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="G32" s="29"/>
-      <c r="H32" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="I32" s="29"/>
-      <c r="J32" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="K32" s="71"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="72" t="s">
-        <v>79</v>
-      </c>
-      <c r="N32" s="71"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="71"/>
-      <c r="R32" s="29"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="20"/>
     </row>
     <row r="33" spans="1:18" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>16</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="28" t="s">
+      <c r="C33" s="20"/>
+      <c r="D33" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="29"/>
-      <c r="F33" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="G33" s="29"/>
-      <c r="H33" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="I33" s="29"/>
-      <c r="J33" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="K33" s="71"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="72" t="s">
+      <c r="E33" s="20"/>
+      <c r="F33" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G33" s="20"/>
+      <c r="H33" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="N33" s="71"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="29"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="K33" s="19"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="N33" s="19"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="20"/>
     </row>
     <row r="34" spans="1:18" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
         <v>17</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="28" t="s">
+      <c r="C34" s="20"/>
+      <c r="D34" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="G34" s="29"/>
-      <c r="H34" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="I34" s="29"/>
-      <c r="J34" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="K34" s="71"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="72" t="s">
+      <c r="E34" s="20"/>
+      <c r="F34" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="20"/>
+      <c r="H34" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="N34" s="71"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="29"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="N34" s="19"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="20"/>
     </row>
     <row r="35" spans="1:18" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>18</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="28" t="s">
+      <c r="C35" s="20"/>
+      <c r="D35" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="29"/>
-      <c r="F35" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="G35" s="29"/>
-      <c r="H35" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="I35" s="29"/>
-      <c r="J35" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="K35" s="71"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="N35" s="71"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="71"/>
-      <c r="R35" s="29"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" s="20"/>
+      <c r="H35" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="K35" s="19"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="N35" s="19"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="20"/>
     </row>
     <row r="36" spans="1:18" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
         <v>19</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="28" t="s">
+      <c r="C36" s="20"/>
+      <c r="D36" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="28" t="s">
+      <c r="E36" s="20"/>
+      <c r="F36" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" s="20"/>
+      <c r="H36" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="G36" s="29"/>
-      <c r="H36" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="I36" s="29"/>
-      <c r="J36" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="K36" s="71"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N36" s="71"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="71"/>
-      <c r="R36" s="29"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="K36" s="19"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="N36" s="19"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="20"/>
     </row>
     <row r="37" spans="1:18" ht="241.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>20</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="28" t="s">
+      <c r="C37" s="20"/>
+      <c r="D37" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="29"/>
-      <c r="F37" s="28" t="s">
+      <c r="E37" s="20"/>
+      <c r="F37" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G37" s="20"/>
+      <c r="H37" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="G37" s="29"/>
-      <c r="H37" s="28" t="s">
+      <c r="K37" s="19"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="I37" s="29"/>
-      <c r="J37" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="K37" s="71"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="N37" s="71"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="71"/>
-      <c r="R37" s="29"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="20"/>
     </row>
     <row r="38" spans="1:18" ht="236.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13">
         <v>21</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="28" t="s">
+      <c r="C38" s="20"/>
+      <c r="D38" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E38" s="29"/>
-      <c r="F38" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="G38" s="29"/>
-      <c r="H38" s="28" t="s">
+      <c r="E38" s="20"/>
+      <c r="F38" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="I38" s="29"/>
-      <c r="J38" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="K38" s="71"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="N38" s="71"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="71"/>
-      <c r="R38" s="29"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="K38" s="19"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="N38" s="19"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="20"/>
     </row>
     <row r="39" spans="1:18" ht="290.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
         <v>22</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="29"/>
-      <c r="D39" s="28" t="s">
+      <c r="C39" s="20"/>
+      <c r="D39" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="29"/>
-      <c r="F39" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="G39" s="29"/>
-      <c r="H39" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="I39" s="29"/>
-      <c r="J39" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="K39" s="71"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="72" t="s">
+      <c r="E39" s="20"/>
+      <c r="F39" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="N39" s="71"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="71"/>
-      <c r="R39" s="29"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="K39" s="19"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="N39" s="19"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="20"/>
     </row>
     <row r="40" spans="1:18" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="13">
         <v>23</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="28" t="s">
+      <c r="C40" s="20"/>
+      <c r="D40" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="29"/>
-      <c r="F40" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="G40" s="29"/>
-      <c r="H40" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="I40" s="29"/>
-      <c r="J40" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="K40" s="71"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="72" t="s">
+      <c r="E40" s="20"/>
+      <c r="F40" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G40" s="20"/>
+      <c r="H40" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="N40" s="71"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="71"/>
-      <c r="R40" s="29"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="K40" s="19"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="N40" s="19"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="20"/>
     </row>
     <row r="41" spans="1:18" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14">
         <v>24</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="29"/>
-      <c r="D41" s="28" t="s">
+      <c r="C41" s="20"/>
+      <c r="D41" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E41" s="29"/>
-      <c r="F41" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G41" s="29"/>
-      <c r="H41" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="I41" s="29"/>
-      <c r="J41" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="K41" s="71"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="N41" s="71"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="71"/>
-      <c r="R41" s="29"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G41" s="20"/>
+      <c r="H41" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="K41" s="19"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="N41" s="19"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="20"/>
     </row>
     <row r="42" spans="1:18" ht="204.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="13">
         <v>25</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="29"/>
-      <c r="D42" s="28" t="s">
+      <c r="C42" s="20"/>
+      <c r="D42" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="29"/>
-      <c r="F42" s="28" t="s">
+      <c r="E42" s="20"/>
+      <c r="F42" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" s="20"/>
+      <c r="H42" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="G42" s="29"/>
-      <c r="H42" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="I42" s="29"/>
-      <c r="J42" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="K42" s="71"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="72" t="s">
-        <v>110</v>
-      </c>
-      <c r="N42" s="71"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="71"/>
-      <c r="R42" s="29"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="N42" s="19"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="20"/>
     </row>
     <row r="43" spans="1:18" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14">
         <v>26</v>
       </c>
-      <c r="B43" s="28"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="28" t="s">
+      <c r="B43" s="21"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G43" s="20"/>
+      <c r="H43" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="G43" s="29"/>
-      <c r="H43" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="I43" s="29"/>
-      <c r="J43" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="K43" s="71"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="72" t="s">
+      <c r="I43" s="20"/>
+      <c r="J43" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="N43" s="71"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="71"/>
-      <c r="R43" s="29"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="N43" s="19"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="20"/>
     </row>
     <row r="44" spans="1:18" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="13">
         <v>27</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="28" t="s">
+      <c r="C44" s="20"/>
+      <c r="D44" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="29"/>
-      <c r="F44" s="28" t="s">
+      <c r="E44" s="20"/>
+      <c r="F44" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="G44" s="20"/>
+      <c r="H44" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="G44" s="29"/>
-      <c r="H44" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="I44" s="29"/>
-      <c r="J44" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="K44" s="71"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="N44" s="71"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="71"/>
-      <c r="R44" s="29"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="K44" s="19"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="N44" s="19"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="20"/>
     </row>
     <row r="45" spans="1:18" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14">
         <v>28</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="28" t="s">
+      <c r="C45" s="20"/>
+      <c r="D45" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E45" s="29"/>
-      <c r="F45" s="28" t="s">
+      <c r="E45" s="20"/>
+      <c r="F45" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="G45" s="20"/>
+      <c r="H45" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="K45" s="19"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="G45" s="29"/>
-      <c r="H45" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="I45" s="29"/>
-      <c r="J45" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="K45" s="71"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="N45" s="71"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="28"/>
-      <c r="Q45" s="71"/>
-      <c r="R45" s="29"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="20"/>
     </row>
     <row r="46" spans="1:18" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="13">
         <v>29</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="29"/>
-      <c r="D46" s="28" t="s">
+      <c r="C46" s="20"/>
+      <c r="D46" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E46" s="29"/>
-      <c r="F46" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="G46" s="29"/>
-      <c r="H46" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="I46" s="29"/>
-      <c r="J46" s="28" t="s">
+      <c r="E46" s="20"/>
+      <c r="F46" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="K46" s="71"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="72" t="s">
+      <c r="G46" s="20"/>
+      <c r="H46" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="N46" s="71"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="71"/>
-      <c r="R46" s="29"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="N46" s="19"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="20"/>
     </row>
     <row r="47" spans="1:18" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14">
         <v>30</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="29"/>
-      <c r="D47" s="28" t="s">
+      <c r="C47" s="20"/>
+      <c r="D47" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E47" s="29"/>
-      <c r="F47" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="G47" s="29"/>
-      <c r="H47" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="I47" s="29"/>
-      <c r="J47" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="K47" s="71"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N47" s="71"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="28"/>
-      <c r="Q47" s="71"/>
-      <c r="R47" s="29"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G47" s="20"/>
+      <c r="H47" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="K47" s="19"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="N47" s="19"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="20"/>
     </row>
     <row r="48" spans="1:18" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13">
         <v>31</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="29"/>
-      <c r="D48" s="28" t="s">
+      <c r="C48" s="20"/>
+      <c r="D48" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E48" s="29"/>
-      <c r="F48" s="28" t="s">
+      <c r="E48" s="20"/>
+      <c r="F48" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G48" s="20"/>
+      <c r="H48" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="G48" s="29"/>
-      <c r="H48" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="I48" s="29"/>
-      <c r="J48" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="K48" s="71"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N48" s="71"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="71"/>
-      <c r="R48" s="29"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="K48" s="19"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="N48" s="19"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="20"/>
     </row>
     <row r="49" spans="1:18" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14">
         <v>32</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="29"/>
-      <c r="D49" s="28" t="s">
+      <c r="C49" s="20"/>
+      <c r="D49" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E49" s="29"/>
-      <c r="F49" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="G49" s="29"/>
-      <c r="H49" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="I49" s="29"/>
-      <c r="J49" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="K49" s="71"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="N49" s="71"/>
-      <c r="O49" s="29"/>
-      <c r="P49" s="28"/>
-      <c r="Q49" s="71"/>
-      <c r="R49" s="29"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G49" s="20"/>
+      <c r="H49" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="K49" s="19"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="N49" s="19"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="20"/>
     </row>
     <row r="50" spans="1:18" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="13">
         <v>33</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="29"/>
-      <c r="D50" s="28" t="s">
+      <c r="C50" s="20"/>
+      <c r="D50" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E50" s="29"/>
-      <c r="F50" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="G50" s="29"/>
-      <c r="H50" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="I50" s="29"/>
-      <c r="J50" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="K50" s="71"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="N50" s="71"/>
-      <c r="O50" s="29"/>
-      <c r="P50" s="28"/>
-      <c r="Q50" s="71"/>
-      <c r="R50" s="29"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G50" s="20"/>
+      <c r="H50" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="K50" s="19"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="N50" s="19"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="20"/>
     </row>
     <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="14">
         <v>34</v>
       </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="71"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="72"/>
-      <c r="N51" s="71"/>
-      <c r="O51" s="29"/>
-      <c r="P51" s="28"/>
-      <c r="Q51" s="71"/>
-      <c r="R51" s="29"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="20"/>
     </row>
     <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="13">
         <v>35</v>
       </c>
-      <c r="B52" s="28"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="71"/>
-      <c r="L52" s="29"/>
-      <c r="M52" s="72"/>
-      <c r="N52" s="71"/>
-      <c r="O52" s="29"/>
-      <c r="P52" s="28"/>
-      <c r="Q52" s="71"/>
-      <c r="R52" s="29"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="279">
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="P44:R44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="P42:R42"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="A14:O14"/>
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:G17"/>
+    <mergeCell ref="H16:I17"/>
+    <mergeCell ref="J16:L17"/>
+    <mergeCell ref="M16:O17"/>
     <mergeCell ref="P16:R17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:G18"/>
@@ -3368,37 +3180,230 @@
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="A14:O14"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:G17"/>
-    <mergeCell ref="H16:I17"/>
-    <mergeCell ref="J16:L17"/>
-    <mergeCell ref="M16:O17"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:L51"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M18" r:id="rId1" location="/p/sarajevo-city-center"/>

--- a/ManualTestingTaskArminNukic.xlsx
+++ b/ManualTestingTaskArminNukic.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp 2560P\Desktop\AtlantBH\ManualTestingTaskArminNukic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp 2560P\Desktop\TestGithuB\ABH_MANUAL_TESTING_TASK\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -466,9 +466,6 @@
   </si>
   <si>
     <t>Manual testing</t>
-  </si>
-  <si>
-    <t>7-feb-2018</t>
   </si>
   <si>
     <t>Test ID</t>
@@ -734,6 +731,9 @@
       </rPr>
       <t xml:space="preserve"> that street address is displayed with markers in this cities "Čelić", "Tešanj", "Zenica" and "Kakanj". This street address should be displayed only in Sarajevo region not in other cities, because it is designed only for Sarajevo and in search bar is written "Sarajevo".                                                    </t>
     </r>
+  </si>
+  <si>
+    <t>8-feb-2018</t>
   </si>
 </sst>
 </file>
@@ -1142,148 +1142,58 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1309,16 +1219,106 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1605,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28:G28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1617,48 +1617,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="50"/>
+      <c r="A1" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="58"/>
       <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="51" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="52"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="32"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="54" t="s">
+      <c r="I2" s="58"/>
+      <c r="J2" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="55"/>
+      <c r="K2" s="61"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
@@ -1674,10 +1674,10 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1702,29 +1702,29 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="57"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="G6" s="59"/>
-      <c r="H6" s="53" t="s">
+      <c r="E6" s="63"/>
+      <c r="F6" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" s="65"/>
+      <c r="H6" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="48" t="s">
+      <c r="I6" s="63"/>
+      <c r="J6" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="48"/>
+      <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
@@ -1743,106 +1743,106 @@
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="10"/>
       <c r="F8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>1</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="3"/>
       <c r="F9" s="12">
         <v>1</v>
       </c>
-      <c r="G9" s="63" t="s">
+      <c r="G9" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="52"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="32"/>
     </row>
     <row r="10" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>2</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="3"/>
       <c r="F10" s="12">
         <v>2</v>
       </c>
-      <c r="G10" s="63" t="s">
+      <c r="G10" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="52"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="32"/>
     </row>
     <row r="11" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>3</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="3"/>
       <c r="F11" s="12">
         <v>3</v>
       </c>
-      <c r="G11" s="63" t="s">
+      <c r="G11" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="52"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="32"/>
     </row>
     <row r="12" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>4</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="3"/>
       <c r="F12" s="12">
         <v>4</v>
       </c>
-      <c r="G12" s="63" t="s">
+      <c r="G12" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="52"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="32"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
@@ -1858,23 +1858,23 @@
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14"/>
@@ -1882,23 +1882,23 @@
       <c r="T14"/>
     </row>
     <row r="15" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15"/>
@@ -1906,1256 +1906,1449 @@
       <c r="T15"/>
     </row>
     <row r="16" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="36" t="s">
+      <c r="C16" s="36"/>
+      <c r="D16" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="66"/>
-      <c r="F16" s="36" t="s">
+      <c r="E16" s="36"/>
+      <c r="F16" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="66"/>
-      <c r="H16" s="71" t="s">
+      <c r="G16" s="36"/>
+      <c r="H16" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="72"/>
-      <c r="J16" s="36" t="s">
+      <c r="I16" s="42"/>
+      <c r="J16" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="37"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="36" t="s">
+      <c r="K16" s="45"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="N16" s="37"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="36" t="s">
+      <c r="N16" s="45"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="38"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="46"/>
     </row>
     <row r="17" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="41"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="49"/>
     </row>
     <row r="18" spans="1:18" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>1</v>
       </c>
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="76"/>
-      <c r="D18" s="42" t="s">
+      <c r="C18" s="23"/>
+      <c r="D18" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="44" t="s">
+      <c r="E18" s="51"/>
+      <c r="F18" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="45"/>
-      <c r="H18" s="44" t="s">
+      <c r="G18" s="53"/>
+      <c r="H18" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="45"/>
-      <c r="J18" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="K18" s="46"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="47" t="s">
+      <c r="I18" s="53"/>
+      <c r="J18" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="K18" s="54"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="N18" s="46"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="45"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="53"/>
     </row>
     <row r="19" spans="1:18" ht="159.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17">
         <v>2</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="77" t="s">
+      <c r="C19" s="25"/>
+      <c r="D19" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="78"/>
-      <c r="F19" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="G19" s="34"/>
-      <c r="H19" s="32" t="s">
+      <c r="E19" s="27"/>
+      <c r="F19" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="H19" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="34"/>
-      <c r="J19" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="K19" s="33"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="35" t="s">
+      <c r="I19" s="25"/>
+      <c r="J19" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="K19" s="69"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="N19" s="33"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="34"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="25"/>
     </row>
     <row r="20" spans="1:18" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <v>3</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21" t="s">
+      <c r="E20" s="29"/>
+      <c r="F20" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21" t="s">
+      <c r="G20" s="29"/>
+      <c r="H20" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="21" t="s">
+      <c r="I20" s="29"/>
+      <c r="J20" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="K20" s="19"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="18" t="s">
+      <c r="K20" s="71"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="N20" s="19"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="20"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="29"/>
     </row>
     <row r="21" spans="1:18" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21" t="s">
+      <c r="C21" s="29"/>
+      <c r="D21" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21" t="s">
+      <c r="E21" s="29"/>
+      <c r="F21" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21" t="s">
+      <c r="G21" s="29"/>
+      <c r="H21" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="21" t="s">
+      <c r="I21" s="29"/>
+      <c r="J21" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="K21" s="19"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="18" t="s">
+      <c r="K21" s="71"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="N21" s="19"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="20"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="29"/>
     </row>
     <row r="22" spans="1:18" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>5</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="26" t="s">
+      <c r="C22" s="19"/>
+      <c r="D22" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="28" t="s">
+      <c r="E22" s="74"/>
+      <c r="F22" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="29"/>
-      <c r="H22" s="28" t="s">
+      <c r="G22" s="19"/>
+      <c r="H22" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="28" t="s">
+      <c r="I22" s="19"/>
+      <c r="J22" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="31" t="s">
+      <c r="K22" s="75"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="N22" s="30"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="29"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="19"/>
     </row>
     <row r="23" spans="1:18" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>6</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="22" t="s">
+      <c r="C23" s="21"/>
+      <c r="D23" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="22" t="s">
+      <c r="E23" s="21"/>
+      <c r="F23" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="22" t="s">
+      <c r="G23" s="21"/>
+      <c r="H23" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="22" t="s">
+      <c r="I23" s="21"/>
+      <c r="J23" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="K23" s="23"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="25" t="s">
+      <c r="K23" s="77"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="N23" s="23"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="24"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="21"/>
     </row>
     <row r="24" spans="1:18" ht="147" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <v>7</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21" t="s">
+      <c r="C24" s="29"/>
+      <c r="D24" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21" t="s">
+      <c r="E24" s="29"/>
+      <c r="F24" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="I24" s="20"/>
-      <c r="J24" s="21" t="s">
+      <c r="G24" s="29"/>
+      <c r="H24" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="I24" s="29"/>
+      <c r="J24" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="K24" s="19"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="18" t="s">
+      <c r="K24" s="71"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="N24" s="19"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="20"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="29"/>
     </row>
     <row r="25" spans="1:18" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>8</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21" t="s">
+      <c r="C25" s="29"/>
+      <c r="D25" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="21" t="s">
+      <c r="E25" s="29"/>
+      <c r="F25" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="I25" s="20"/>
-      <c r="J25" s="21" t="s">
+      <c r="G25" s="29"/>
+      <c r="H25" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="K25" s="19"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="18" t="s">
+      <c r="I25" s="29"/>
+      <c r="J25" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25" s="71"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="N25" s="19"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="20"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="29"/>
     </row>
     <row r="26" spans="1:18" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>9</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21" t="s">
+      <c r="C26" s="29"/>
+      <c r="D26" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="21" t="s">
+      <c r="E26" s="29"/>
+      <c r="F26" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="21" t="s">
+      <c r="G26" s="29"/>
+      <c r="H26" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I26" s="20"/>
-      <c r="J26" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="K26" s="19"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="18" t="s">
+      <c r="I26" s="29"/>
+      <c r="J26" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="K26" s="71"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="N26" s="19"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="20"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="29"/>
     </row>
     <row r="27" spans="1:18" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>10</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21" t="s">
+      <c r="C27" s="29"/>
+      <c r="D27" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="21" t="s">
+      <c r="E27" s="29"/>
+      <c r="F27" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="20"/>
-      <c r="H27" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="I27" s="20"/>
-      <c r="J27" s="21" t="s">
+      <c r="G27" s="29"/>
+      <c r="H27" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="K27" s="19"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="18" t="s">
+      <c r="I27" s="29"/>
+      <c r="J27" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="K27" s="71"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="N27" s="19"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="20"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="29"/>
     </row>
     <row r="28" spans="1:18" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <v>11</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21" t="s">
+      <c r="C28" s="29"/>
+      <c r="D28" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="21" t="s">
+      <c r="E28" s="29"/>
+      <c r="F28" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="I28" s="20"/>
-      <c r="J28" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="K28" s="19"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="18" t="s">
+      <c r="G28" s="29"/>
+      <c r="H28" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="I28" s="29"/>
+      <c r="J28" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="K28" s="71"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="N28" s="19"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="20"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="29"/>
     </row>
     <row r="29" spans="1:18" ht="149.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>12</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21" t="s">
+      <c r="C29" s="29"/>
+      <c r="D29" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="21" t="s">
+      <c r="E29" s="29"/>
+      <c r="F29" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="I29" s="20"/>
-      <c r="J29" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="K29" s="19"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="18" t="s">
+      <c r="G29" s="29"/>
+      <c r="H29" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="I29" s="29"/>
+      <c r="J29" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="K29" s="71"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="N29" s="19"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="20"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="29"/>
     </row>
     <row r="30" spans="1:18" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
         <v>13</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21" t="s">
+      <c r="C30" s="29"/>
+      <c r="D30" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="21" t="s">
+      <c r="E30" s="29"/>
+      <c r="F30" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="G30" s="20"/>
-      <c r="H30" s="21" t="s">
+      <c r="G30" s="29"/>
+      <c r="H30" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="I30" s="20"/>
-      <c r="J30" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="K30" s="19"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="18" t="s">
+      <c r="I30" s="29"/>
+      <c r="J30" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="K30" s="71"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="N30" s="19"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="20"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="29"/>
     </row>
     <row r="31" spans="1:18" ht="138" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
         <v>14</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="21" t="s">
+      <c r="C31" s="29"/>
+      <c r="D31" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="21" t="s">
+      <c r="E31" s="29"/>
+      <c r="F31" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="G31" s="20"/>
-      <c r="H31" s="21" t="s">
+      <c r="G31" s="29"/>
+      <c r="H31" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="I31" s="20"/>
-      <c r="J31" s="21" t="s">
+      <c r="I31" s="29"/>
+      <c r="J31" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="K31" s="19"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="18" t="s">
+      <c r="K31" s="71"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="N31" s="19"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="20"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="29"/>
     </row>
     <row r="32" spans="1:18" ht="151.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
         <v>15</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="21" t="s">
+      <c r="C32" s="29"/>
+      <c r="D32" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="21" t="s">
+      <c r="E32" s="29"/>
+      <c r="F32" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="21" t="s">
+      <c r="G32" s="29"/>
+      <c r="H32" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="I32" s="20"/>
-      <c r="J32" s="21" t="s">
+      <c r="I32" s="29"/>
+      <c r="J32" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="K32" s="19"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="18" t="s">
+      <c r="K32" s="71"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="N32" s="19"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="20"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="29"/>
     </row>
     <row r="33" spans="1:18" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>16</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="21" t="s">
+      <c r="C33" s="29"/>
+      <c r="D33" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="21" t="s">
+      <c r="E33" s="29"/>
+      <c r="F33" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="21" t="s">
+      <c r="G33" s="29"/>
+      <c r="H33" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="I33" s="20"/>
-      <c r="J33" s="21" t="s">
+      <c r="I33" s="29"/>
+      <c r="J33" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="K33" s="19"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="18" t="s">
+      <c r="K33" s="71"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="N33" s="19"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="20"/>
+      <c r="N33" s="71"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="29"/>
     </row>
     <row r="34" spans="1:18" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
         <v>17</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21" t="s">
+      <c r="C34" s="29"/>
+      <c r="D34" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="21" t="s">
+      <c r="E34" s="29"/>
+      <c r="F34" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="G34" s="20"/>
-      <c r="H34" s="21" t="s">
+      <c r="G34" s="29"/>
+      <c r="H34" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="I34" s="20"/>
-      <c r="J34" s="21" t="s">
+      <c r="I34" s="29"/>
+      <c r="J34" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="K34" s="19"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="18" t="s">
+      <c r="K34" s="71"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="N34" s="19"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="20"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="29"/>
     </row>
     <row r="35" spans="1:18" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>18</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="21" t="s">
+      <c r="C35" s="29"/>
+      <c r="D35" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="20"/>
-      <c r="F35" s="21" t="s">
+      <c r="E35" s="29"/>
+      <c r="F35" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="G35" s="20"/>
-      <c r="H35" s="21" t="s">
+      <c r="G35" s="29"/>
+      <c r="H35" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="I35" s="20"/>
-      <c r="J35" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="K35" s="19"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="18" t="s">
+      <c r="I35" s="29"/>
+      <c r="J35" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="K35" s="71"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="N35" s="19"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="20"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="71"/>
+      <c r="R35" s="29"/>
     </row>
     <row r="36" spans="1:18" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
         <v>19</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="21" t="s">
+      <c r="C36" s="29"/>
+      <c r="D36" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="20"/>
-      <c r="F36" s="21" t="s">
+      <c r="E36" s="29"/>
+      <c r="F36" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="G36" s="20"/>
-      <c r="H36" s="21" t="s">
+      <c r="G36" s="29"/>
+      <c r="H36" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="I36" s="20"/>
-      <c r="J36" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="K36" s="19"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="18" t="s">
+      <c r="I36" s="29"/>
+      <c r="J36" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="K36" s="71"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="N36" s="19"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="20"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="29"/>
     </row>
     <row r="37" spans="1:18" ht="241.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>20</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="21" t="s">
+      <c r="C37" s="29"/>
+      <c r="D37" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="21" t="s">
+      <c r="E37" s="29"/>
+      <c r="F37" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="G37" s="20"/>
-      <c r="H37" s="21" t="s">
+      <c r="G37" s="29"/>
+      <c r="H37" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="I37" s="20"/>
-      <c r="J37" s="21" t="s">
+      <c r="I37" s="29"/>
+      <c r="J37" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="K37" s="19"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="18" t="s">
+      <c r="K37" s="71"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="N37" s="19"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="20"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="71"/>
+      <c r="R37" s="29"/>
     </row>
     <row r="38" spans="1:18" ht="236.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13">
         <v>21</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="21" t="s">
+      <c r="C38" s="29"/>
+      <c r="D38" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="21" t="s">
+      <c r="E38" s="29"/>
+      <c r="F38" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="21" t="s">
+      <c r="G38" s="29"/>
+      <c r="H38" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="I38" s="20"/>
-      <c r="J38" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="K38" s="19"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="18" t="s">
+      <c r="I38" s="29"/>
+      <c r="J38" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="K38" s="71"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="N38" s="19"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="20"/>
+      <c r="N38" s="71"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="71"/>
+      <c r="R38" s="29"/>
     </row>
     <row r="39" spans="1:18" ht="290.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
         <v>22</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="21" t="s">
+      <c r="C39" s="29"/>
+      <c r="D39" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="21" t="s">
+      <c r="E39" s="29"/>
+      <c r="F39" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="G39" s="20"/>
-      <c r="H39" s="21" t="s">
+      <c r="G39" s="29"/>
+      <c r="H39" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="I39" s="20"/>
-      <c r="J39" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="K39" s="19"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="18" t="s">
+      <c r="I39" s="29"/>
+      <c r="J39" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="K39" s="71"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="N39" s="19"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="20"/>
+      <c r="N39" s="71"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="71"/>
+      <c r="R39" s="29"/>
     </row>
     <row r="40" spans="1:18" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="13">
         <v>23</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="21" t="s">
+      <c r="C40" s="29"/>
+      <c r="D40" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="21" t="s">
+      <c r="E40" s="29"/>
+      <c r="F40" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G40" s="20"/>
-      <c r="H40" s="21" t="s">
+      <c r="G40" s="29"/>
+      <c r="H40" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="I40" s="20"/>
-      <c r="J40" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="K40" s="19"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="18" t="s">
+      <c r="I40" s="29"/>
+      <c r="J40" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="K40" s="71"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="N40" s="19"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="20"/>
+      <c r="N40" s="71"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="71"/>
+      <c r="R40" s="29"/>
     </row>
     <row r="41" spans="1:18" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14">
         <v>24</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="29"/>
+      <c r="D41" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="21" t="s">
+      <c r="E41" s="29"/>
+      <c r="F41" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="G41" s="20"/>
-      <c r="H41" s="21" t="s">
+      <c r="G41" s="29"/>
+      <c r="H41" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="I41" s="20"/>
-      <c r="J41" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="K41" s="19"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="18" t="s">
+      <c r="I41" s="29"/>
+      <c r="J41" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="K41" s="71"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="N41" s="19"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="20"/>
+      <c r="N41" s="71"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="71"/>
+      <c r="R41" s="29"/>
     </row>
     <row r="42" spans="1:18" ht="204.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="13">
         <v>25</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="21" t="s">
+      <c r="C42" s="29"/>
+      <c r="D42" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="20"/>
-      <c r="F42" s="21" t="s">
+      <c r="E42" s="29"/>
+      <c r="F42" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="G42" s="20"/>
-      <c r="H42" s="21" t="s">
+      <c r="G42" s="29"/>
+      <c r="H42" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="I42" s="20"/>
-      <c r="J42" s="21" t="s">
+      <c r="I42" s="29"/>
+      <c r="J42" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="K42" s="19"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="18" t="s">
+      <c r="K42" s="71"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="N42" s="19"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="20"/>
+      <c r="N42" s="71"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="71"/>
+      <c r="R42" s="29"/>
     </row>
     <row r="43" spans="1:18" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14">
         <v>26</v>
       </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="21" t="s">
+      <c r="B43" s="28"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="G43" s="20"/>
-      <c r="H43" s="21" t="s">
+      <c r="G43" s="29"/>
+      <c r="H43" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="I43" s="20"/>
-      <c r="J43" s="21" t="s">
+      <c r="I43" s="29"/>
+      <c r="J43" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="K43" s="19"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="18" t="s">
+      <c r="K43" s="71"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="N43" s="19"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="20"/>
+      <c r="N43" s="71"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="71"/>
+      <c r="R43" s="29"/>
     </row>
     <row r="44" spans="1:18" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="13">
         <v>27</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="21" t="s">
+      <c r="C44" s="29"/>
+      <c r="D44" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="20"/>
-      <c r="F44" s="21" t="s">
+      <c r="E44" s="29"/>
+      <c r="F44" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="G44" s="20"/>
-      <c r="H44" s="21" t="s">
+      <c r="G44" s="29"/>
+      <c r="H44" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="I44" s="20"/>
-      <c r="J44" s="21" t="s">
+      <c r="I44" s="29"/>
+      <c r="J44" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="K44" s="19"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="18" t="s">
+      <c r="K44" s="71"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="N44" s="19"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="20"/>
+      <c r="N44" s="71"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="71"/>
+      <c r="R44" s="29"/>
     </row>
     <row r="45" spans="1:18" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14">
         <v>28</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="21" t="s">
+      <c r="C45" s="29"/>
+      <c r="D45" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="21" t="s">
+      <c r="E45" s="29"/>
+      <c r="F45" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="G45" s="20"/>
-      <c r="H45" s="21" t="s">
+      <c r="G45" s="29"/>
+      <c r="H45" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="I45" s="20"/>
-      <c r="J45" s="21" t="s">
+      <c r="I45" s="29"/>
+      <c r="J45" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="K45" s="19"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="18" t="s">
+      <c r="K45" s="71"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="N45" s="19"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="20"/>
+      <c r="N45" s="71"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="71"/>
+      <c r="R45" s="29"/>
     </row>
     <row r="46" spans="1:18" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="13">
         <v>29</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="21" t="s">
+      <c r="C46" s="29"/>
+      <c r="D46" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E46" s="20"/>
-      <c r="F46" s="21" t="s">
+      <c r="E46" s="29"/>
+      <c r="F46" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="G46" s="20"/>
-      <c r="H46" s="21" t="s">
+      <c r="G46" s="29"/>
+      <c r="H46" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="I46" s="20"/>
-      <c r="J46" s="21" t="s">
+      <c r="I46" s="29"/>
+      <c r="J46" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="K46" s="19"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="18" t="s">
+      <c r="K46" s="71"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="N46" s="19"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="20"/>
+      <c r="N46" s="71"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="71"/>
+      <c r="R46" s="29"/>
     </row>
     <row r="47" spans="1:18" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14">
         <v>30</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="21" t="s">
+      <c r="C47" s="29"/>
+      <c r="D47" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E47" s="20"/>
-      <c r="F47" s="21" t="s">
+      <c r="E47" s="29"/>
+      <c r="F47" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="G47" s="20"/>
-      <c r="H47" s="21" t="s">
+      <c r="G47" s="29"/>
+      <c r="H47" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="I47" s="20"/>
-      <c r="J47" s="21" t="s">
+      <c r="I47" s="29"/>
+      <c r="J47" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="K47" s="19"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="18" t="s">
+      <c r="K47" s="71"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="N47" s="19"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="20"/>
+      <c r="N47" s="71"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="71"/>
+      <c r="R47" s="29"/>
     </row>
     <row r="48" spans="1:18" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13">
         <v>31</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="21" t="s">
+      <c r="C48" s="29"/>
+      <c r="D48" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E48" s="20"/>
-      <c r="F48" s="21" t="s">
+      <c r="E48" s="29"/>
+      <c r="F48" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="G48" s="20"/>
-      <c r="H48" s="21" t="s">
+      <c r="G48" s="29"/>
+      <c r="H48" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="I48" s="20"/>
-      <c r="J48" s="21" t="s">
+      <c r="I48" s="29"/>
+      <c r="J48" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="K48" s="19"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="18" t="s">
+      <c r="K48" s="71"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="N48" s="19"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="20"/>
+      <c r="N48" s="71"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="71"/>
+      <c r="R48" s="29"/>
     </row>
     <row r="49" spans="1:18" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14">
         <v>32</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="21" t="s">
+      <c r="C49" s="29"/>
+      <c r="D49" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E49" s="20"/>
-      <c r="F49" s="21" t="s">
+      <c r="E49" s="29"/>
+      <c r="F49" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="G49" s="20"/>
-      <c r="H49" s="21" t="s">
+      <c r="G49" s="29"/>
+      <c r="H49" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="I49" s="20"/>
-      <c r="J49" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="K49" s="19"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="18" t="s">
+      <c r="I49" s="29"/>
+      <c r="J49" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="K49" s="71"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="N49" s="19"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="20"/>
+      <c r="N49" s="71"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="71"/>
+      <c r="R49" s="29"/>
     </row>
     <row r="50" spans="1:18" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="13">
         <v>33</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="21" t="s">
+      <c r="C50" s="29"/>
+      <c r="D50" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E50" s="20"/>
-      <c r="F50" s="21" t="s">
+      <c r="E50" s="29"/>
+      <c r="F50" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="G50" s="20"/>
-      <c r="H50" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="I50" s="20"/>
-      <c r="J50" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="K50" s="19"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="18" t="s">
+      <c r="G50" s="29"/>
+      <c r="H50" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="I50" s="29"/>
+      <c r="J50" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="K50" s="71"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="N50" s="19"/>
-      <c r="O50" s="20"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="20"/>
+      <c r="N50" s="71"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="71"/>
+      <c r="R50" s="29"/>
     </row>
     <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="14">
         <v>34</v>
       </c>
-      <c r="B51" s="21"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="20"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="71"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="72"/>
+      <c r="N51" s="71"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="28"/>
+      <c r="Q51" s="71"/>
+      <c r="R51" s="29"/>
     </row>
     <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="13">
         <v>35</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="21"/>
-      <c r="Q52" s="19"/>
-      <c r="R52" s="20"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="71"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="72"/>
+      <c r="N52" s="71"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="28"/>
+      <c r="Q52" s="71"/>
+      <c r="R52" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="279">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="A14:O14"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:G17"/>
-    <mergeCell ref="H16:I17"/>
-    <mergeCell ref="J16:L17"/>
-    <mergeCell ref="M16:O17"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:R20"/>
     <mergeCell ref="P16:R17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:G18"/>
@@ -3180,230 +3373,37 @@
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="P42:R42"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="P44:R44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="A14:O14"/>
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:G17"/>
+    <mergeCell ref="H16:I17"/>
+    <mergeCell ref="J16:L17"/>
+    <mergeCell ref="M16:O17"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M18" r:id="rId1" location="/p/sarajevo-city-center"/>
